--- a/180128_升降母车测试V1.1.xlsx
+++ b/180128_升降母车测试V1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Ref:
 编号</t>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>1.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,：人为拔出编码器电缆，报编码器故障；2：人为拔出位置环的信号线，报DIP故障（速度闭环只需要测试1，,双闭环测试1和2，）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,20 +228,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动模式（需要空托盘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求模拟所有流程的测试运行，在流程测试完成后，测试空托盘，安全前提将速度提到设计要求。正常运行速度为50HZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求模拟所有流程的测试运行，在流程测试完成后，测试重载托盘，安全前提将速度提到设计要求。正常运行速度为50HZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要时，需要将空载和重载，将速度分开处理，达到理想运行效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何情况，输送正转，碰到正转极限需要停止，输送反转，碰到反转极限需要停止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于速度的定义：如果是双闭环采用定位程序，速度对应关系为1:1 输出速度100就等于100转；如果采用普通速度模式，速度关系为5倍，输出500为100转。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于MDX61b转动惯量，行走为4-10倍，通常为8倍，升降为1倍，行走加减速为10S，升降为5S。这个加减速对应电机是0-3000转。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注3：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于双闭环，通过条码和激光的位置检测，910通常为0.15 只通过编码器的通常为0.3,200 和201 根据实际运行情况调整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuttle bus Setup Test
+升降母车设置测试
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过手动前进按钮，母车低速前进，此时触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，故障置位，母车停止运行，此时后退脱离极限，故障复位，母车恢复正常；通过手动后退按钮，母车低速前进，此时触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，故障置位，母车停止运行，此时前进脱离极限，故障复位，母车恢复正常；有故障时，同时检查故障状态是否准确 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述功能测试完成以后，对站台进行定位，将地址写入相应的站台。（需要定义同层每一列货架条码区间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过母车面板切换为手动模式。此时灯柱黄灯常亮；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当站台定位完成以后。用HMI写入相应排列层，启动运行。观察自动运行是否平稳，定位是否准确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于定位，电机一启动位置清零，只有电机停止以后，编码器位置到位，根据实际位置判断在允许的误差范围类，才赋实际位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>以上所有的货物超限开关都必须进行置位操作，一旦触发，即便清除超限阻挡物，也不能自动清除故障，必须通过故障复位才能清除故障信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动模式（需要空托盘）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>根据需求模拟所有流程的测试运行，同时需要确保上述测试各项安全检测，在自动程序同样起作用。需要特别</t>
+    <t>对于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过手动上升按钮，母车低速上升，此时触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，故障置位，母车停止运行，此时下降脱离上极限，故障复位，母车恢复正常；通过手动下降按钮，母车低速下降，此时触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，故障置位，母车停止运行，此时前进脱离下极限，故障复位，母车恢复正常；有故障时，同时检查故障状态是否准确 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有配重，则上极限安装在轿厢区域，下极限则安装在配重的上端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,：人为拔出编码器电缆，报编码器故障；2：人为拔出位置环的信号线，报DIP故障（速度闭环只需要测试1，,双闭环测试1和2，）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>根据需求模拟所有流程的测试运行，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同时需要确保上述测试各项安全检测，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在自动程序同样起作用。需要特别</t>
     </r>
     <r>
       <rPr>
@@ -271,126 +462,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>根据需求模拟所有流程的测试运行，在流程测试完成后，测试空托盘，安全前提将速度提到设计要求。正常运行速度为50HZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据需求模拟所有流程的测试运行，在流程测试完成后，测试重载托盘，安全前提将速度提到设计要求。正常运行速度为50HZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必要时，需要将空载和重载，将速度分开处理，达到理想运行效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任何情况，输送正转，碰到正转极限需要停止，输送反转，碰到反转极限需要停止。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于速度的定义：如果是双闭环采用定位程序，速度对应关系为1:1 输出速度100就等于100转；如果采用普通速度模式，速度关系为5倍，输出500为100转。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于MDX61b转动惯量，行走为4-10倍，通常为8倍，升降为1倍，行走加减速为10S，升降为5S。这个加减速对应电机是0-3000转。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注3：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于双闭环，通过条码和激光的位置检测，910通常为0.15 只通过编码器的通常为0.3,200 和201 根据实际运行情况调整。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Shuttle bus Setup Test
-升降母车设置测试
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过手动前进按钮，母车低速前进，此时触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>前极限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，故障置位，母车停止运行，此时后退脱离极限，故障复位，母车恢复正常；通过手动后退按钮，母车低速前进，此时触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>后极限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">，故障置位，母车停止运行，此时前进脱离极限，故障复位，母车恢复正常；有故障时，同时检查故障状态是否准确 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上述功能测试完成以后，对站台进行定位，将地址写入相应的站台。（需要定义同层每一列货架条码区间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过母车面板切换为手动模式。此时灯柱黄灯常亮；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当站台定位完成以后。用HMI写入相应排列层，启动运行。观察自动运行是否平稳，定位是否准确。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于定位，电机一启动位置清零，只有电机停止以后，编码器位置到位，根据实际位置判断在允许的误差范围类，才赋实际位置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +525,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -659,9 +743,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -676,6 +757,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -998,10 +1082,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
@@ -1104,8 +1188,8 @@
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>27</v>
+      <c r="B10" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1116,139 +1200,137 @@
         <v>13</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13"/>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>63</v>
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="C17" s="13"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>34</v>
+    <row r="18" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>65</v>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>37</v>
+    <row r="21" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>41</v>
+    <row r="23" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="10"/>
@@ -1256,10 +1338,10 @@
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
@@ -1267,61 +1349,63 @@
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="13"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="10"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>5.0999999999999996</v>
+      <c r="A28" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>5.2</v>
+      <c r="A29" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>50</v>
+      <c r="A30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1329,62 +1413,92 @@
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>53</v>
+      <c r="A32" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+    </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1410,6 +1524,9 @@
     <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
